--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1163729.750240355</v>
+        <v>1179048.063964928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111182</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426270.275711288</v>
+        <v>7426270.275711289</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>190.3453970742847</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>227.4128599785995</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.3106286157618</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>85.49838238928905</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="F5" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>25.34359263192378</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>174.7568433692306</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>103.0088977318019</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>160.4442220756123</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>56.45421124693008</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969024</v>
+        <v>118.6954547790016</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>58.20823965347069</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>147.3962661676073</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>43.10070109604758</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1503,19 +1503,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.12022702288998</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I13" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>339.2119352020417</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -1658,10 +1658,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>46.39419849782014</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,22 +1686,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33.61070434854822</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>163.624084888498</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.2952677809261</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214935</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1810,7 +1810,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.06257007945342</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,22 +1920,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>25.37527508885726</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W19" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969024</v>
@@ -2099,7 +2099,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>96.30626612731594</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>61.8711631883384</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>87.91392443507338</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>200.745781551449</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>104.1189927826356</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.682370494006977</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>128.5517364212869</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>205.3531117266654</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.36175976093797</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>18.12022702288997</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>122.6711488329946</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>111.7681704818749</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>61.36635568412315</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>48.98427584501924</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>200.3371067511485</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>321.4272969983947</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>85.70573774545464</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>192.6698640700816</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>86.4776504855727</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>184.600497370507</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>91.84833456121387</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>76.22084015123761</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.637108967925595</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>263.1876011547915</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>160.3258343960375</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>128.8673601250574</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>122.0501874122705</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="G37" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>338.0913843196641</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>281.632415043073</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
@@ -3600,7 +3600,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>188.0611939594941</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>127.5262986521574</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.6396260835082</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>278.8265697844214</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>15.13518083054801</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.18822243440155</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>321.2226697030428</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>116.4479354970736</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4059,16 +4059,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>139.2557204402305</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>191.96389311163</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>248.9911026845557</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>555.4877027295624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>312.0389260854624</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>104.1874258799295</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>104.1874258799295</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>874.2758585542716</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>852.019301208126</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
         <v>243.9530410142718</v>
@@ -4592,25 +4592,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>663.8706929970961</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>435.6470747334852</v>
+        <v>512.948217504867</v>
       </c>
       <c r="V6" t="n">
-        <v>435.6470747334852</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>277.7961092731243</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
         <v>243.9530410142718</v>
@@ -4844,10 +4844,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W9" t="n">
-        <v>733.6153551563252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>525.7638549507924</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4978,19 +4978,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.5649960805456</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C11" t="n">
-        <v>800.5649960805456</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D11" t="n">
-        <v>442.299297473795</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E11" t="n">
-        <v>442.299297473795</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
         <v>70.13987180521508</v>
@@ -5054,37 +5054,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1564.170086317437</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1564.170086317437</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1564.170086317437</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V11" t="n">
-        <v>1564.170086317437</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W11" t="n">
-        <v>1564.170086317437</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X11" t="n">
-        <v>1190.704328056357</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y11" t="n">
-        <v>800.5649960805456</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181.3444431007697</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="C12" t="n">
-        <v>32.45932575975219</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809358</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313476</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051269</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1254.561044051269</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1019.408935819526</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W12" t="n">
-        <v>765.1715790913245</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="X12" t="n">
-        <v>557.3200788857916</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="Y12" t="n">
-        <v>349.5597801208377</v>
+        <v>709.8087082577354</v>
       </c>
     </row>
     <row r="13">
@@ -5188,19 +5188,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>342.9433419838693</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H13" t="n">
-        <v>181.4512025860964</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="F14" t="n">
-        <v>631.9553272824514</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G14" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H14" t="n">
         <v>222.1153555684087</v>
@@ -5279,13 +5279,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5306,22 +5306,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="Y14" t="n">
-        <v>1041.795298996494</v>
+        <v>1311.402045381201</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>240.8625614535542</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="C15" t="n">
-        <v>66.40953217242716</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="D15" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E15" t="n">
-        <v>32.45932575975219</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H15" t="n">
         <v>32.45932575975219</v>
@@ -5355,52 +5355,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>470.3844842016426</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M15" t="n">
-        <v>869.8026208059056</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>1271.486777082839</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1374.066492846507</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>1145.863825383985</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V15" t="n">
-        <v>910.7117171522425</v>
+        <v>1256.786425670377</v>
       </c>
       <c r="W15" t="n">
-        <v>656.4743604240409</v>
+        <v>1002.549068942176</v>
       </c>
       <c r="X15" t="n">
-        <v>448.6228602185081</v>
+        <v>794.697568736643</v>
       </c>
       <c r="Y15" t="n">
-        <v>240.8625614535542</v>
+        <v>586.9372699716891</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="E16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="F16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="G16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="H16" t="n">
-        <v>129.490276430019</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
@@ -5458,28 +5458,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.490276430019</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="17">
@@ -5513,52 +5513,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1400.222368368377</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1146.385485300631</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V17" t="n">
-        <v>815.3225979570608</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W17" t="n">
-        <v>462.5539426869466</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X17" t="n">
-        <v>89.08818442586676</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.08818442586676</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>222.0882603251556</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>222.0882603251556</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>222.0882603251556</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>222.0882603251556</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
         <v>222.0882603251556</v>
@@ -5595,13 +5595,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>905.3665017627701</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
         <v>1057.709031609044</v>
@@ -5610,34 +5610,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894786</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577358</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295342</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240014</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y18" t="n">
-        <v>222.0882603251556</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="19">
@@ -5704,19 +5704,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W19" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="C20" t="n">
-        <v>968.7637269953007</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="D20" t="n">
-        <v>968.7637269953007</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="E20" t="n">
-        <v>968.7637269953007</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953007</v>
+        <v>876.3867538809027</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>466.5467821668598</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>129.7383824540107</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011321</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528328</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5774,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.470163554945</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y20" t="n">
-        <v>1337.726243935712</v>
+        <v>1286.226725594945</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>280.4987246390192</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="C21" t="n">
-        <v>280.4987246390192</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="D21" t="n">
-        <v>280.4987246390192</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E21" t="n">
-        <v>121.2612696335637</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>121.2612696335637</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321105</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.96628798761</v>
@@ -5859,22 +5859,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>1145.863825383985</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V21" t="n">
-        <v>910.7117171522427</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W21" t="n">
-        <v>656.4743604240412</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="X21" t="n">
-        <v>656.4743604240412</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="Y21" t="n">
-        <v>448.7140616590872</v>
+        <v>507.0351915391004</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144412</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H22" t="n">
         <v>1294.179012144412</v>
@@ -5938,22 +5938,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T22" t="n">
-        <v>1583.375590384508</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>755.0559780708455</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C23" t="n">
-        <v>755.0559780708455</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D23" t="n">
-        <v>755.0559780708455</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975231</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1618.236620821946</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T23" t="n">
-        <v>1395.492701202713</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1141.655818134967</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V23" t="n">
-        <v>1141.655818134967</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W23" t="n">
-        <v>1141.655818134967</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X23" t="n">
-        <v>1141.655818134967</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1141.655818134967</v>
+        <v>506.5925424806039</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>191.6967807652077</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="C24" t="n">
-        <v>191.6967807652077</v>
+        <v>327.9282933941185</v>
       </c>
       <c r="D24" t="n">
-        <v>191.6967807652077</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>729.6092173456784</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
-        <v>1131.293373622612</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1493.116049178228</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1264.913381715707</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V24" t="n">
-        <v>1029.761273483964</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W24" t="n">
-        <v>775.5239167557625</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="X24" t="n">
-        <v>567.6724165502296</v>
+        <v>502.3813226752455</v>
       </c>
       <c r="Y24" t="n">
-        <v>359.9121177852757</v>
+        <v>502.3813226752455</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>199.7544622051772</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>50.76258537883297</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6181,16 +6181,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.5621133970633</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975219</v>
+        <v>883.5977926533735</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975219</v>
+        <v>514.6352757129619</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>156.3695771062114</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
@@ -6233,7 +6233,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6251,25 +6251,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>405.9250840208321</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X26" t="n">
-        <v>32.45932575975219</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975219</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>910.3247089140674</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C27" t="n">
-        <v>735.8716796329404</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D27" t="n">
-        <v>586.9372699716891</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6998149662337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931187</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L27" t="n">
-        <v>208.2166101768439</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M27" t="n">
-        <v>607.634746781107</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1560.980070124859</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.980070124859</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.980070124859</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1332.777402662337</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V27" t="n">
-        <v>1332.777402662337</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W27" t="n">
-        <v>1078.540045934135</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X27" t="n">
-        <v>1078.540045934135</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y27" t="n">
-        <v>1078.540045934135</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="28">
@@ -6415,16 +6415,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>72.05002336285366</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y28" t="n">
         <v>32.45932575975219</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>883.5977926533737</v>
+        <v>1013.622528304256</v>
       </c>
       <c r="C29" t="n">
-        <v>883.5977926533737</v>
+        <v>644.660011363844</v>
       </c>
       <c r="D29" t="n">
-        <v>883.5977926533737</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E29" t="n">
-        <v>883.5977926533737</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
-        <v>883.5977926533737</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
@@ -6491,22 +6491,22 @@
         <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.96628798761</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="W29" t="n">
-        <v>1270.197632717495</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="X29" t="n">
-        <v>1270.197632717495</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="Y29" t="n">
-        <v>1270.197632717495</v>
+        <v>1400.222368368377</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>355.8467647021305</v>
+        <v>293.4838073090152</v>
       </c>
       <c r="C30" t="n">
-        <v>181.3937354210034</v>
+        <v>119.0307780278882</v>
       </c>
       <c r="D30" t="n">
         <v>32.45932575975219</v>
@@ -6540,16 +6540,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668621</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609044</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1455.464052945775</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U30" t="n">
-        <v>1260.848028632561</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V30" t="n">
-        <v>1025.695920400819</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W30" t="n">
-        <v>771.4585636726172</v>
+        <v>877.31094329957</v>
       </c>
       <c r="X30" t="n">
-        <v>563.6070634670843</v>
+        <v>669.4594430940372</v>
       </c>
       <c r="Y30" t="n">
-        <v>355.8467647021305</v>
+        <v>461.6991443290833</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144412</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C31" t="n">
         <v>1294.179012144412</v>
@@ -6652,19 +6652,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1145.475793905159</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C32" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D32" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E32" t="n">
         <v>32.45932575975219</v>
@@ -6701,13 +6701,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6719,31 +6719,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1535.61512588097</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1535.61512588097</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1535.61512588097</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V32" t="n">
-        <v>1535.61512588097</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="W32" t="n">
-        <v>1535.61512588097</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X32" t="n">
-        <v>1535.61512588097</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y32" t="n">
-        <v>1145.475793905159</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>338.2313387383227</v>
+        <v>448.6228602185081</v>
       </c>
       <c r="C33" t="n">
-        <v>338.2313387383227</v>
+        <v>274.1698309373811</v>
       </c>
       <c r="D33" t="n">
-        <v>338.2313387383227</v>
+        <v>125.2354212761298</v>
       </c>
       <c r="E33" t="n">
-        <v>178.9938837328672</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
         <v>32.45932575975219</v>
@@ -6777,13 +6777,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
         <v>656.0248753321104</v>
@@ -6804,25 +6804,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1464.577980260828</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1263.674971366322</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U33" t="n">
-        <v>1035.4723039038</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V33" t="n">
-        <v>800.3201956720573</v>
+        <v>910.7117171522425</v>
       </c>
       <c r="W33" t="n">
-        <v>546.0828389438556</v>
+        <v>656.4743604240409</v>
       </c>
       <c r="X33" t="n">
-        <v>338.2313387383227</v>
+        <v>448.6228602185081</v>
       </c>
       <c r="Y33" t="n">
-        <v>338.2313387383227</v>
+        <v>448.6228602185081</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C34" t="n">
-        <v>1454.030105059702</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D34" t="n">
-        <v>1303.913465647367</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>558.9237552812579</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="C35" t="n">
-        <v>558.9237552812579</v>
+        <v>846.2271159476759</v>
       </c>
       <c r="D35" t="n">
-        <v>558.9237552812579</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="E35" t="n">
-        <v>558.9237552812579</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="F35" t="n">
-        <v>558.9237552812579</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="G35" t="n">
-        <v>558.9237552812579</v>
+        <v>487.9614173409254</v>
       </c>
       <c r="H35" t="n">
         <v>222.1153555684087</v>
@@ -6938,10 +6938,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941457</v>
@@ -6962,25 +6962,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1094.334800811062</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1094.334800811062</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>720.8690425499826</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y35" t="n">
-        <v>558.9237552812579</v>
+        <v>1232.826956011798</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>784.901795268853</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C36" t="n">
-        <v>610.448765987726</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D36" t="n">
-        <v>461.5143563264747</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E36" t="n">
-        <v>302.2769013210192</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F36" t="n">
-        <v>155.7423433479042</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>934.1153971668621</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V36" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W36" t="n">
-        <v>1368.728931259408</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="X36" t="n">
-        <v>1160.877431053875</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="Y36" t="n">
-        <v>953.1171322889211</v>
+        <v>1119.829136118305</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="C37" t="n">
-        <v>192.3104186750432</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="D37" t="n">
-        <v>192.3104186750432</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="E37" t="n">
-        <v>192.3104186750432</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="F37" t="n">
-        <v>192.3104186750432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7096,7 +7096,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7120,25 +7120,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>732.2314731742442</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7175,13 +7175,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>1508.970645214178</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X38" t="n">
-        <v>1508.970645214178</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y38" t="n">
-        <v>1118.831313238366</v>
+        <v>506.5925424806037</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>534.9536628471124</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C39" t="n">
-        <v>360.5006335659854</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D39" t="n">
-        <v>360.5006335659854</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E39" t="n">
-        <v>360.5006335659854</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321101</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7281,22 +7281,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1433.005486008322</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1204.802818545801</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V39" t="n">
-        <v>1204.802818545801</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W39" t="n">
-        <v>950.565461817599</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X39" t="n">
-        <v>742.7139616120662</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y39" t="n">
-        <v>534.9536628471124</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="40">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K41" t="n">
         <v>247.3580469011316</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U41" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V41" t="n">
-        <v>1291.903400644039</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W41" t="n">
-        <v>939.1347453739247</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X41" t="n">
-        <v>565.6689871128449</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y41" t="n">
-        <v>175.5296551370332</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>989.6600854869342</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
@@ -7521,19 +7521,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1157.875422507002</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V42" t="n">
-        <v>1157.875422507002</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W42" t="n">
-        <v>1157.875422507002</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X42" t="n">
-        <v>1157.875422507002</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.875422507002</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E43" t="n">
-        <v>213.333508020557</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F43" t="n">
-        <v>213.333508020557</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G43" t="n">
-        <v>193.9514651575251</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>1583.596182181372</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y43" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>715.1923675008893</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="C44" t="n">
-        <v>715.1923675008893</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="D44" t="n">
-        <v>356.9266688941388</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="E44" t="n">
-        <v>356.9266688941388</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="F44" t="n">
-        <v>356.9266688941388</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="G44" t="n">
-        <v>356.9266688941388</v>
+        <v>486.8919027423726</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>150.0835030295235</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1088.658125761969</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X44" t="n">
-        <v>715.1923675008893</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y44" t="n">
-        <v>715.1923675008893</v>
+        <v>896.7318744564154</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>651.0967412602795</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C45" t="n">
-        <v>476.6437119791524</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D45" t="n">
-        <v>476.6437119791524</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>317.4062569736969</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
         <v>32.45932575975219</v>
@@ -7734,16 +7734,16 @@
         <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668621</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7752,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1482.303944108589</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1281.400935214082</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U45" t="n">
-        <v>1281.400935214082</v>
+        <v>1429.063365652629</v>
       </c>
       <c r="V45" t="n">
-        <v>1281.400935214082</v>
+        <v>1193.911257420887</v>
       </c>
       <c r="W45" t="n">
-        <v>1027.16357848588</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X45" t="n">
-        <v>819.3120782803476</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y45" t="n">
-        <v>819.3120782803476</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C46" t="n">
         <v>32.45932575975219</v>
@@ -7828,28 +7828,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2055399582312</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>334.9172332258182</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O15" t="n">
-        <v>67.58604940343854</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,7 +9243,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>203.2271928126418</v>
+        <v>380.7598033349565</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>86.93262649026374</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>391.3774455544768</v>
+        <v>251.9990040344215</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>390.1250211658775</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343854</v>
       </c>
       <c r="P24" t="n">
-        <v>133.7959972113199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>70.10119885733472</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N27" t="n">
-        <v>393.6271860256722</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.18790452568</v>
+        <v>203.2271928126416</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>267.4734388209744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N33" t="n">
         <v>455.0874215304797</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>281.0382923213829</v>
       </c>
       <c r="N36" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>173.9657132208094</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733471</v>
       </c>
       <c r="M39" t="n">
-        <v>391.3774455544764</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>455.0874215304797</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210624</v>
       </c>
       <c r="N45" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809043</v>
+        <v>288.1805909627099</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>137.3846741811759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3122328207084</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>104.3443644685912</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23391,19 +23391,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>149.6064425243204</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>67.66411053966976</v>
       </c>
       <c r="G14" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>204.9043157392483</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,22 +23574,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>113.8343612160905</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>69.17650226092726</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>120.5819502228691</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.6712715840272</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23808,22 +23808,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>176.9363649428773</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>180.3074206884471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23944,13 +23944,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W19" t="n">
-        <v>140.8555754337624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G20" t="n">
         <v>8.971932133631526</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>91.45320338325398</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.7217506463081</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>49.11432507334807</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,13 +24108,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>50.94920160947058</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>2.104484466239654</v>
       </c>
       <c r="I22" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24178,10 +24178,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>278.6148488808449</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24254,25 +24254,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>190.9105433406395</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>70.34224238427478</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,13 +24345,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>46.34187143425424</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>75.25371325727438</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,13 +24379,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>56.5522494385248</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24461,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>65.08832067757535</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24491,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>139.5303437551935</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>19.21722881415236</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
@@ -24576,19 +24576,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>202.7107073159004</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24655,19 +24655,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>186.5148647619667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039198</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>154.3459348695345</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G29" t="n">
-        <v>93.28620713213922</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,13 +24756,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>61.73932781918411</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>33.25077671781497</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579937</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24892,10 +24892,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>212.9428526967578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24965,22 +24965,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1152633490738</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>164.640471346906</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24996,16 +24996,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>65.79674589418707</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25044,10 +25044,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>89.60637254017814</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>136.7968536786436</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25132,10 +25132,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>213.161238575653</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25169,7 +25169,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>70.25271456092912</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25211,16 +25211,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>225.9121042600161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>37.66582352480998</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25245,13 +25245,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.97806209615096</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -25296,10 +25296,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>39.33204381001867</v>
       </c>
       <c r="G37" t="n">
-        <v>9.474087561072309</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25333,7 +25333,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>27.18150745134346</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,10 +25406,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>51.80790067264758</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,16 +25521,16 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>10.83278484606754</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>124.1686845087622</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0942155799724</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25646,7 +25646,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>70.41439893299162</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>150.2198559240989</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25761,19 +25761,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>210.7854599573486</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,16 +25792,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>148.5384471128089</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25843,10 +25843,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>213.1612385756532</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
-        <v>12.21764601267785</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>71.31153401349631</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
         <v>251.2985142370684</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25947,16 +25947,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
         <v>109.1906224126114</v>
@@ -25992,16 +25992,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>26.57149225118528</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>33.95674767626656</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>128.0520304715574</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,16 +26068,16 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531929.5479803974</v>
+        <v>531929.5479803971</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531929.5479803971</v>
+        <v>531929.5479803972</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>531929.5479803972</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>531929.547980397</v>
+        <v>531929.5479803972</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531929.5479803968</v>
+        <v>531929.5479803974</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>531929.547980397</v>
+        <v>531929.5479803972</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>531929.5479803971</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>531929.5479803969</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531929.5479803975</v>
+        <v>531929.5479803969</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531929.5479803971</v>
+        <v>531929.547980397</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26326,22 +26326,22 @@
         <v>267036.121330758</v>
       </c>
       <c r="G2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="H2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="I2" t="n">
         <v>267036.1213307579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>267036.1213307581</v>
-      </c>
-      <c r="I2" t="n">
-        <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
         <v>267036.1213307581</v>
       </c>
       <c r="K2" t="n">
-        <v>267036.1213307579</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="L2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="M2" t="n">
         <v>267036.1213307581</v>
@@ -26353,7 +26353,7 @@
         <v>267036.121330758</v>
       </c>
       <c r="P2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.1213307579</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="E4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="F4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="G4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="H4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="I4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="J4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="K4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="L4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="M4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="N4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="O4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="P4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375757</v>
@@ -26485,10 +26485,10 @@
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52964.63462416613</v>
+        <v>54769.87430787355</v>
       </c>
       <c r="C6" t="n">
-        <v>133734.0661557138</v>
+        <v>135539.3058394212</v>
       </c>
       <c r="D6" t="n">
-        <v>133734.0661557138</v>
+        <v>135539.3058394214</v>
       </c>
       <c r="E6" t="n">
-        <v>18817.78973323511</v>
+        <v>20661.11000367306</v>
       </c>
       <c r="F6" t="n">
-        <v>185757.9598584818</v>
+        <v>187601.2801289198</v>
       </c>
       <c r="G6" t="n">
-        <v>185757.9598584817</v>
+        <v>187601.2801289198</v>
       </c>
       <c r="H6" t="n">
-        <v>185757.9598584819</v>
+        <v>187601.2801289197</v>
       </c>
       <c r="I6" t="n">
-        <v>185757.9598584818</v>
+        <v>187601.2801289196</v>
       </c>
       <c r="J6" t="n">
-        <v>122698.0172593756</v>
+        <v>124541.3375298136</v>
       </c>
       <c r="K6" t="n">
-        <v>185757.9598584817</v>
+        <v>187601.2801289198</v>
       </c>
       <c r="L6" t="n">
-        <v>185757.9598584819</v>
+        <v>187601.2801289198</v>
       </c>
       <c r="M6" t="n">
-        <v>144707.261996034</v>
+        <v>146550.5822664719</v>
       </c>
       <c r="N6" t="n">
-        <v>185757.9598584819</v>
+        <v>187601.2801289199</v>
       </c>
       <c r="O6" t="n">
-        <v>185757.9598584818</v>
+        <v>187601.2801289197</v>
       </c>
       <c r="P6" t="n">
-        <v>185757.9598584819</v>
+        <v>187601.2801289196</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26768,7 +26768,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="M3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
         <v>146.5718044195371</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>216.5306486674267</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>187.8898775365355</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.22255503410554</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>166.1966007716306</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>102.130479048002</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4890065639068</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>283.1818162837787</v>
       </c>
       <c r="F5" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>174.8211360628978</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>51.18453871174427</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>303.8671480099096</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27938,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>65.4971600053625</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>195.2407719139895</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32461,22 +32461,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32485,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32503,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I35" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L35" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438474</v>
@@ -33670,16 +33670,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R35" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S35" t="n">
         <v>13.4271557515988</v>
@@ -33688,7 +33688,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,46 +33728,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H36" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J36" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M36" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R36" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,40 +33807,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I37" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L37" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M37" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O37" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R37" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S37" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35492,22 +35492,22 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>312.9531394448605</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726431</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>264.8160343684835</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.0611576216798</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726433</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35972,7 +35972,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>153.8813432790645</v>
+        <v>331.4139538013791</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36139,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>329.1250450411061</v>
+        <v>189.7466035210509</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969024</v>
@@ -36215,10 +36215,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36291,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
@@ -36446,13 +36446,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>340.7791716323001</v>
       </c>
       <c r="O24" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>60.02388433300664</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
         <v>177.5326105223149</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N27" t="n">
-        <v>344.2813364920948</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36692,7 +36692,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
@@ -36920,7 +36920,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>124.8420549921026</v>
+        <v>153.8813432790642</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
-        <v>197.3722399636397</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969023</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726433</v>
@@ -37324,7 +37324,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366293</v>
+        <v>218.7858918080123</v>
       </c>
       <c r="N36" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L37" t="n">
         <v>66.88568574354744</v>
@@ -37476,10 +37476,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O37" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P37" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M38" t="n">
-        <v>322.6315268094068</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
         <v>313.0722467132387</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>329.1250450411058</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
         <v>405.7415719969023</v>
@@ -37640,7 +37640,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37874,10 +37874,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>170.3630375661004</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38026,7 +38026,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0722467132383</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
         <v>249.9811662707763</v>
@@ -38102,10 +38102,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366293</v>
+        <v>12.21399299873562</v>
       </c>
       <c r="N45" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
@@ -38114,7 +38114,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1195693.183268617</v>
+        <v>1139915.661126012</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426270.275711289</v>
+        <v>7426270.275711287</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G2" t="n">
-        <v>202.2946864288972</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>138.2885688732092</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7640312737175322</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.0250417001232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>95.54537783390992</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>87.11878864677688</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>174.295579654083</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>125.4077279788558</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>36.11203520458128</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>164.8872839271642</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>273.8682113704543</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>125.178514901655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>67.70441643510553</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1745,16 +1745,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>209.1173619813905</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>125.5822957186518</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>155.8923997687</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>76.07967080018476</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1979,7 +1979,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>199.4585810418243</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.81861933956887</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>253.6573013492388</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>156.3643295326802</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2165,16 +2165,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>122.0501874122705</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>32.79499295929909</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>91.1162517976238</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>88.00880902957793</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>108.7668093276099</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>103.3249685652701</v>
+        <v>39.19479062707036</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>127.4504114272314</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>46.39419849781969</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>29.59730409546642</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2693,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>53.8217205517977</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.78974769572874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G29" t="n">
-        <v>192.5396875991021</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>234.1536680083896</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>95.02258546632255</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>140.3541797920981</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.7727335375555</v>
       </c>
       <c r="W31" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>95.71084011701873</v>
       </c>
       <c r="F32" t="n">
         <v>405.7415719969023</v>
@@ -3046,10 +3046,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.99539127537011</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>161.5259332102756</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.0933703165743</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>156.3643295326804</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531301852</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>87.3028380711265</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>98.68313739545462</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.637108967925709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>328.7386374139169</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>260.0722125249083</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>9.350212746780594</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3638,7 +3638,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>213.0151886752402</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.6831373954543</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.65031255674046</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>113.7236532331432</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>147.9447771960909</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>177.7121654225278</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3884,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7727335375553</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.66929392497712</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>117.5067549496406</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>38.92321710192613</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>58.61262817923927</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4106,25 +4106,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>71.11366144357815</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.9581538727056</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>318.9581538727056</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>526.7184526376595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>318.9581538727056</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4588,28 +4588,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
         <v>761.6974622895962</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.1066536671728</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C6" t="n">
-        <v>111.1066536671728</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="D6" t="n">
-        <v>111.1066536671728</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>111.1066536671728</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>111.1066536671728</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>111.1066536671728</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>318.8669524321267</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y6" t="n">
-        <v>111.1066536671728</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>495.259035872464</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>251.810259228364</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>251.810259228364</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>251.810259228364</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>366.0828425718125</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>206.845387566357</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>876.0583790997505</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>876.0583790997505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>876.0583790997505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>876.0583790997505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>876.0583790997505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>876.0583790997505</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.2068788942177</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>779.107697186644</v>
+        <v>811.2618144142068</v>
       </c>
       <c r="C11" t="n">
-        <v>779.107697186644</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D11" t="n">
-        <v>779.107697186644</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E11" t="n">
-        <v>779.107697186644</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F11" t="n">
-        <v>779.107697186644</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P11" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q11" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
-        <v>1332.914504149447</v>
+        <v>1311.402045381202</v>
       </c>
       <c r="T11" t="n">
-        <v>1110.170584530215</v>
+        <v>1184.727572675287</v>
       </c>
       <c r="U11" t="n">
-        <v>1110.170584530215</v>
+        <v>1184.727572675287</v>
       </c>
       <c r="V11" t="n">
-        <v>779.107697186644</v>
+        <v>1184.727572675287</v>
       </c>
       <c r="W11" t="n">
-        <v>779.107697186644</v>
+        <v>1184.727572675287</v>
       </c>
       <c r="X11" t="n">
-        <v>779.107697186644</v>
+        <v>811.2618144142068</v>
       </c>
       <c r="Y11" t="n">
-        <v>779.107697186644</v>
+        <v>811.2618144142068</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>717.9650240571782</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C12" t="n">
-        <v>543.5119947760512</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D12" t="n">
-        <v>543.5119947760512</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1622.966287987609</v>
+        <v>1006.61067190436</v>
       </c>
       <c r="V12" t="n">
-        <v>1387.814179755866</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="W12" t="n">
-        <v>1133.576823027665</v>
+        <v>771.4585636726172</v>
       </c>
       <c r="X12" t="n">
-        <v>925.7253228221321</v>
+        <v>563.6070634670843</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.9650240571782</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.5582999135148</v>
+        <v>309.093882699605</v>
       </c>
       <c r="C14" t="n">
-        <v>348.5582999135148</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D14" t="n">
-        <v>348.5582999135148</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E14" t="n">
-        <v>348.5582999135148</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F14" t="n">
-        <v>348.5582999135148</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G14" t="n">
-        <v>348.5582999135148</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T14" t="n">
-        <v>1286.226725594945</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>1032.3898425272</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V14" t="n">
-        <v>701.3269551836289</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="W14" t="n">
-        <v>348.5582999135148</v>
+        <v>1069.159481024807</v>
       </c>
       <c r="X14" t="n">
-        <v>348.5582999135148</v>
+        <v>695.6937227637268</v>
       </c>
       <c r="Y14" t="n">
-        <v>348.5582999135148</v>
+        <v>695.6937227637268</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>329.1174114232697</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="C15" t="n">
-        <v>329.1174114232697</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="D15" t="n">
-        <v>180.1830017620184</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="E15" t="n">
-        <v>180.1830017620184</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>180.1830017620184</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
-        <v>180.1830017620184</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456783</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
@@ -5378,31 +5378,31 @@
         <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.665718993835</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.358376588747</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V15" t="n">
-        <v>791.2062683570041</v>
+        <v>901.2333929642517</v>
       </c>
       <c r="W15" t="n">
-        <v>536.9689116288025</v>
+        <v>901.2333929642517</v>
       </c>
       <c r="X15" t="n">
-        <v>329.1174114232697</v>
+        <v>693.3818927587189</v>
       </c>
       <c r="Y15" t="n">
-        <v>329.1174114232697</v>
+        <v>485.621593993765</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4902764300189</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.3908257546921</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C17" t="n">
-        <v>716.3908257546921</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D17" t="n">
-        <v>716.3908257546921</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E17" t="n">
-        <v>716.3908257546921</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F17" t="n">
-        <v>716.3908257546921</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5545,22 +5545,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1400.222368368377</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V17" t="n">
-        <v>1069.159481024806</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W17" t="n">
-        <v>716.3908257546921</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X17" t="n">
-        <v>716.3908257546921</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="Y17" t="n">
-        <v>716.3908257546921</v>
+        <v>978.9900729440517</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240009</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C18" t="n">
-        <v>247.7198513240009</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D18" t="n">
-        <v>247.7198513240009</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
-        <v>247.7198513240009</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313474</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1053.087729867608</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>817.9356216358649</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>563.6982649076633</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240009</v>
+        <v>355.8467647021305</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.3086022700522</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5712,13 +5712,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C20" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D20" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E20" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1088.658125761969</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U20" t="n">
-        <v>1088.658125761969</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V20" t="n">
-        <v>1088.658125761969</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W20" t="n">
-        <v>1088.658125761969</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X20" t="n">
-        <v>1088.658125761969</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y20" t="n">
-        <v>698.5187937861574</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>784.901795268853</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C21" t="n">
-        <v>610.448765987726</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D21" t="n">
-        <v>461.5143563264747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>302.2769013210192</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>155.7423433479042</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N21" t="n">
-        <v>1335.799553443796</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
         <v>1513.730526286846</v>
@@ -5858,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U21" t="n">
-        <v>1622.966287987609</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V21" t="n">
-        <v>1622.966287987609</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W21" t="n">
-        <v>1368.728931259408</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X21" t="n">
-        <v>1160.877431053875</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y21" t="n">
-        <v>953.1171322889211</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>401.4218427001639</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975219</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5992,7 +5992,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6013,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1589.840032473166</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1392.271432640189</v>
       </c>
       <c r="T23" t="n">
-        <v>1530.929670010212</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="U23" t="n">
-        <v>1530.929670010212</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="V23" t="n">
-        <v>1530.929670010212</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="W23" t="n">
-        <v>1178.161014740097</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="X23" t="n">
-        <v>1178.161014740097</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="Y23" t="n">
-        <v>788.0216827642857</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>288.85934770015</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>142.3247897270349</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975219</v>
@@ -6068,25 +6068,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K24" t="n">
-        <v>91.88297124942892</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L24" t="n">
-        <v>389.6147262310921</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M24" t="n">
-        <v>789.0328628353551</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112288</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
@@ -6095,25 +6095,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U24" t="n">
-        <v>1026.358376588747</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V24" t="n">
-        <v>791.2062683570041</v>
+        <v>958.7085033988383</v>
       </c>
       <c r="W24" t="n">
-        <v>536.9689116288025</v>
+        <v>704.4711466706367</v>
       </c>
       <c r="X24" t="n">
-        <v>329.1174114232697</v>
+        <v>496.6196464651039</v>
       </c>
       <c r="Y24" t="n">
-        <v>121.3571126583158</v>
+        <v>288.85934770015</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>1369.605756044831</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.966287987609</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S25" t="n">
-        <v>1518.597632871175</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="T25" t="n">
-        <v>1518.597632871175</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>1518.597632871175</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.197115080188</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="C26" t="n">
-        <v>161.197115080188</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="D26" t="n">
-        <v>161.197115080188</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="E26" t="n">
-        <v>161.197115080188</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="F26" t="n">
-        <v>161.197115080188</v>
+        <v>631.9553272824514</v>
       </c>
       <c r="G26" t="n">
-        <v>161.197115080188</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H26" t="n">
-        <v>161.197115080188</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
         <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V26" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W26" t="n">
-        <v>1311.402045381201</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X26" t="n">
-        <v>937.9362871201215</v>
+        <v>1041.795298996494</v>
       </c>
       <c r="Y26" t="n">
-        <v>547.7969551443098</v>
+        <v>1041.795298996494</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>910.3247089140674</v>
+        <v>487.165748399574</v>
       </c>
       <c r="C27" t="n">
-        <v>735.8716796329404</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D27" t="n">
-        <v>586.9372699716891</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6998149662337</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
         <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313477</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1593.070021224512</v>
       </c>
       <c r="T27" t="n">
-        <v>1340.665718993834</v>
+        <v>1392.167012330005</v>
       </c>
       <c r="U27" t="n">
-        <v>1340.665718993834</v>
+        <v>1392.167012330005</v>
       </c>
       <c r="V27" t="n">
-        <v>1340.665718993834</v>
+        <v>1157.014904098262</v>
       </c>
       <c r="W27" t="n">
-        <v>1340.665718993834</v>
+        <v>902.7775473700608</v>
       </c>
       <c r="X27" t="n">
-        <v>1286.300344699089</v>
+        <v>694.926047164528</v>
       </c>
       <c r="Y27" t="n">
-        <v>1078.540045934135</v>
+        <v>487.165748399574</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6417,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>133.2570507049327</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1122.370805150056</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C29" t="n">
-        <v>753.4082882096438</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D29" t="n">
-        <v>753.4082882096438</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E29" t="n">
-        <v>753.4082882096438</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="F29" t="n">
-        <v>753.4082882096438</v>
+        <v>678.8181540479259</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812579</v>
+        <v>268.9781823338831</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6490,25 +6490,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S29" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y29" t="n">
-        <v>1508.970645214177</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>910.3247089140674</v>
+        <v>757.6011872426429</v>
       </c>
       <c r="C30" t="n">
-        <v>735.8716796329404</v>
+        <v>583.1481579615159</v>
       </c>
       <c r="D30" t="n">
-        <v>586.9372699716891</v>
+        <v>434.2137483002647</v>
       </c>
       <c r="E30" t="n">
-        <v>427.6998149662337</v>
+        <v>274.9762932948092</v>
       </c>
       <c r="F30" t="n">
-        <v>281.1652569931187</v>
+        <v>128.4417353216942</v>
       </c>
       <c r="G30" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313477</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1313.692154165878</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1313.692154165878</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V30" t="n">
-        <v>1078.540045934135</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W30" t="n">
-        <v>1078.540045934135</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X30" t="n">
-        <v>1078.540045934135</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="Y30" t="n">
-        <v>1078.540045934135</v>
+        <v>925.816524262711</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1368.281799781722</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="W31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="X31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="C32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="D32" t="n">
-        <v>1264.700589380859</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.700589380859</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F32" t="n">
-        <v>854.8606176668159</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G32" t="n">
-        <v>445.0206459527731</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
-        <v>108.212246239924</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
@@ -6706,10 +6706,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6727,25 +6727,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.966287987609</v>
+        <v>948.8168854676546</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.6600854869342</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C33" t="n">
-        <v>815.2070562058072</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>91.88297124942886</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>389.614726231092</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>789.032862835355</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>1190.717019112288</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1513.730526286846</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6809,22 +6809,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.966287987609</v>
+        <v>1459.808779694401</v>
       </c>
       <c r="U33" t="n">
-        <v>1622.966287987609</v>
+        <v>1231.60611223188</v>
       </c>
       <c r="V33" t="n">
-        <v>1622.966287987609</v>
+        <v>996.454004000137</v>
       </c>
       <c r="W33" t="n">
-        <v>1573.487221477489</v>
+        <v>742.2166472719355</v>
       </c>
       <c r="X33" t="n">
-        <v>1365.635721271956</v>
+        <v>534.3651470664026</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.875422507002</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.549117950648</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1465.022520782882</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="U35" t="n">
-        <v>1369.129404919863</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="V35" t="n">
-        <v>1369.129404919863</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="W35" t="n">
-        <v>1016.360749649749</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="X35" t="n">
-        <v>642.8949913886693</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y35" t="n">
-        <v>252.7556594128575</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
         <v>61.20822116384403</v>
@@ -7031,37 +7031,37 @@
         <v>1160.042269026703</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894781</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577354</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295337</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240009</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904698</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.5121480999948</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5759651720879</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y37" t="n">
-        <v>351.5121480999948</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975218</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1032.389842527199</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V38" t="n">
-        <v>701.3269551836285</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W38" t="n">
-        <v>369.2677254726013</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X38" t="n">
-        <v>369.2677254726013</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>515.0842197075859</v>
+        <v>375.5944693865171</v>
       </c>
       <c r="C39" t="n">
-        <v>340.6311904264589</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="D39" t="n">
-        <v>191.6967807652077</v>
+        <v>201.1414401053901</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>41.9039850999346</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>41.9039850999346</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>41.9039850999346</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975218</v>
@@ -7253,52 +7253,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668618</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>957.9966267042826</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V39" t="n">
-        <v>722.8445184725399</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W39" t="n">
-        <v>722.8445184725399</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X39" t="n">
-        <v>722.8445184725399</v>
+        <v>583.354768151471</v>
       </c>
       <c r="Y39" t="n">
-        <v>515.0842197075859</v>
+        <v>375.5944693865171</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T40" t="n">
-        <v>1393.858948907497</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144411</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975218</v>
@@ -7435,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1558.673042980801</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1558.673042980801</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T41" t="n">
-        <v>1558.673042980801</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U41" t="n">
-        <v>1558.673042980801</v>
+        <v>1255.133762146431</v>
       </c>
       <c r="V41" t="n">
-        <v>1558.673042980801</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="W41" t="n">
-        <v>1205.904387710686</v>
+        <v>924.0708748028607</v>
       </c>
       <c r="X41" t="n">
-        <v>832.4386294496067</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y41" t="n">
-        <v>442.2992974737949</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>656.4743604240407</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C42" t="n">
-        <v>656.4743604240407</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D42" t="n">
-        <v>656.4743604240407</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7496,46 +7496,46 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>236.9655055809357</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313474</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1374.066492846507</v>
+        <v>1275.956815145242</v>
       </c>
       <c r="U42" t="n">
-        <v>1145.863825383985</v>
+        <v>1047.75414768272</v>
       </c>
       <c r="V42" t="n">
-        <v>910.7117171522423</v>
+        <v>812.6020394509774</v>
       </c>
       <c r="W42" t="n">
-        <v>656.4743604240407</v>
+        <v>558.3646827227757</v>
       </c>
       <c r="X42" t="n">
-        <v>656.4743604240407</v>
+        <v>350.5131825172429</v>
       </c>
       <c r="Y42" t="n">
-        <v>656.4743604240407</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="C43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="D43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="E43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F43" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="X43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="Y43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>846.2271159476757</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C44" t="n">
-        <v>846.2271159476757</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>487.9614173409252</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>487.9614173409252</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>487.9614173409252</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975218</v>
@@ -7657,7 +7657,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7693,7 +7693,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.826956011797</v>
+        <v>1583.649907076573</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>494.3868162035217</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="C45" t="n">
-        <v>319.9337869223947</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D45" t="n">
-        <v>170.9993772611434</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E45" t="n">
-        <v>170.9993772611434</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F45" t="n">
-        <v>170.9993772611434</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G45" t="n">
-        <v>170.9993772611434</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7727,16 +7727,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609043</v>
@@ -7754,25 +7754,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.366060425819</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V45" t="n">
-        <v>1078.213952194076</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W45" t="n">
-        <v>1078.213952194076</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X45" t="n">
-        <v>870.3624519885436</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y45" t="n">
-        <v>662.6021532235898</v>
+        <v>873.1288352333386</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975218</v>
@@ -7839,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>72.05002336285361</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>72.05002336285361</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5148970497678</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243586</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733471</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>364.5878977387109</v>
       </c>
       <c r="O15" t="n">
-        <v>209.1955478481128</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>228.2563757694029</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O21" t="n">
-        <v>247.3143048004598</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>117.9172225363091</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258673</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>281.0382923213832</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>404.2448282451928</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304798</v>
+        <v>270.4206501018625</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>117.917222536309</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10679,10 +10679,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>180.1562595611509</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243589</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>63.84875129258624</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>375.205539958231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>418.8785602873039</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928323</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.2973341805635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>95.10875244418405</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>121.5330452508197</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>61.0333568607324</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>91.40468040055327</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,10 +23512,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>208.2618008140656</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>41.48620597750583</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>23.68322516803474</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559315</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23709,10 +23709,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>257.1515459448287</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G17" t="n">
-        <v>258.8211043618339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>68.98954159319912</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>26.46205974607227</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.0133608423684</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129.0765403142418</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>94.9341847043882</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24053,16 +24053,16 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>14.97806209615096</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24098,16 +24098,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>52.3388948030437</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>109.6390682700374</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
         <v>226.8162656893113</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>80.06069338639836</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>129.400228625416</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>78.52437462028941</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,10 +24296,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>28.26144018081155</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24384,10 +24384,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
-        <v>116.0854303065833</v>
+        <v>180.215608244783</v>
       </c>
       <c r="T25" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>60.30905808333847</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>323.3369021806494</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>136.2299085959493</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,13 +24581,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>151.9512646516798</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.7949056563661</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1738165314318</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>99.28664770733099</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2985142370684</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>42.0056640420989</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24809,10 +24809,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>58.53979901346352</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24897,10 +24897,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.36490978627251</v>
       </c>
       <c r="W31" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>286.219529955243</v>
       </c>
       <c r="F32" t="n">
         <v>1.134473744809156</v>
@@ -24934,10 +24934,10 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>112.7640782351998</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25001,22 +25001,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>37.36804559528605</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>128.53187892014</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25131,16 +25131,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.6404713469063</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25204,22 +25204,22 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>39.22858430196612</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.1079591185655</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.52437462028925</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>69.04353215175578</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9475443841691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>20.50233130349613</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>109.6588881535608</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,7 +25487,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>99.84040966583076</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>12.90545211265635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>61.63766533429788</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25599,13 +25599,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>187.6214750622412</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>49.20537378895699</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -25684,16 +25684,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>256.0074474453259</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25715,19 +25715,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>9.70030325931009</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>21.18181338303381</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>2.104484466239882</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
@@ -25833,10 +25833,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>204.7411049468762</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
-        <v>297.2067491808933</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>347.3147215541275</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>50.57799423337209</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>134.5690343337262</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990355</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26079,19 +26079,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.3898627250244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531929.5479803971</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531929.5479803971</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>531929.5479803972</v>
+        <v>531929.5479803968</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>531929.5479803972</v>
+        <v>531929.5479803967</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>531929.5479803972</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>531929.547980397</v>
+        <v>531929.5479803969</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>531929.5479803969</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>531929.5479803968</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>531929.5479803974</v>
+        <v>531929.547980397</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>531929.547980397</v>
+        <v>531929.5479803972</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>531929.5479803974</v>
+        <v>531929.5479803971</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>531929.547980397</v>
+        <v>531929.5479803968</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="F2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="G2" t="n">
         <v>267036.121330758</v>
@@ -26337,7 +26337,7 @@
         <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="K2" t="n">
         <v>267036.121330758</v>
@@ -26349,10 +26349,10 @@
         <v>267036.121330758</v>
       </c>
       <c r="N2" t="n">
+        <v>267036.1213307581</v>
+      </c>
+      <c r="O2" t="n">
         <v>267036.121330758</v>
-      </c>
-      <c r="O2" t="n">
-        <v>267036.1213307581</v>
       </c>
       <c r="P2" t="n">
         <v>267036.121330758</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252467</v>
+        <v>166940.1701252468</v>
       </c>
       <c r="F3" t="n">
-        <v>3.046296085568232e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244788</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
@@ -26450,7 +26450,7 @@
         <v>51570.48828808074</v>
       </c>
       <c r="M4" t="n">
-        <v>51570.48828808073</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="N4" t="n">
         <v>51570.48828808074</v>
@@ -26478,31 +26478,31 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375758</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27864.35291375758</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="G5" t="n">
-        <v>27864.35291375756</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54769.87430787361</v>
+        <v>54769.87430787355</v>
       </c>
       <c r="C6" t="n">
-        <v>135539.3058394212</v>
+        <v>135539.3058394214</v>
       </c>
       <c r="D6" t="n">
-        <v>135539.3058394215</v>
+        <v>135539.3058394213</v>
       </c>
       <c r="E6" t="n">
-        <v>20661.11000367304</v>
+        <v>10816.51061029615</v>
       </c>
       <c r="F6" t="n">
-        <v>187601.2801289197</v>
+        <v>177756.6807355431</v>
       </c>
       <c r="G6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.6807355429</v>
       </c>
       <c r="H6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.6807355431</v>
       </c>
       <c r="I6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.680735543</v>
       </c>
       <c r="J6" t="n">
-        <v>124541.3375298136</v>
+        <v>114696.7381364367</v>
       </c>
       <c r="K6" t="n">
-        <v>187601.2801289197</v>
+        <v>177756.680735543</v>
       </c>
       <c r="L6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.6807355429</v>
       </c>
       <c r="M6" t="n">
-        <v>146550.5822664718</v>
+        <v>136705.982873095</v>
       </c>
       <c r="N6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.6807355431</v>
       </c>
       <c r="O6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.6807355429</v>
       </c>
       <c r="P6" t="n">
-        <v>187601.2801289198</v>
+        <v>177756.680735543</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="G3" t="n">
         <v>146.571804419537</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="F4" t="n">
-        <v>1.063183126685966e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>164.7272831192432</v>
+        <v>164.7272831192433</v>
       </c>
       <c r="N4" t="n">
-        <v>1.063183126685966e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="G2" t="n">
-        <v>213.0080510862378</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>9.156496691429595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>31.76164565717804</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>22.7597532753017</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>345.7616595229184</v>
       </c>
     </row>
     <row r="6">
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>60.32627691786188</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4714129627789</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>24.98494807699674</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>310.2633432389318</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.2128969559303</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,22 +27934,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>49.52383455947395</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.03904550586626</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27997,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I11" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M13" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32408,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32417,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N23" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I24" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R24" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R25" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>113.3808631277495</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>30.9845960460454</v>
       </c>
       <c r="Q12" t="n">
         <v>110.3391532330937</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>315.2420482051336</v>
       </c>
       <c r="O15" t="n">
-        <v>141.6094984446742</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35980,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O21" t="n">
-        <v>179.7282553970212</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
         <v>110.3391532330937</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L23" t="n">
         <v>274.8802469209098</v>
@@ -36369,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K24" t="n">
-        <v>30.98459604604533</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900931</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>218.7858918080125</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36691,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>341.9924277318221</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682852</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>30.98459604604529</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>112.5702101577123</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604563</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37633,7 +37633,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>14.50290175900885</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37642,7 +37642,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>312.9531394448603</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>369.5327107537265</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094069</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
